--- a/AutoJobSearch/extract/job_results_1.xlsx
+++ b/AutoJobSearch/extract/job_results_1.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4560 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Junior Backend Developer</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Max Secure Software</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=9c106b816a28024e&amp;bb=HDABu8tXO71zMzm5kKxvXcTir9IjFVdjk8s3C-UnYJE-hSoVcO_y3E9N5BRPMydYo-EgBKfEQZD9auX_N9BfPEw5MHGSjw9Hm8RjeaNy-T-j2FZ4ZeWniePOA8U7vw2i&amp;xkcb=SoAq67M35khjVngPSr0LbzkdCdPP&amp;fccid=e702fad82fda8df4&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IOConnect Software Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pimpri-Chinchwad, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=d8862b1a4c1fbc79&amp;bb=HDABu8tXO71zMzm5kKxvXabvGu-RYepaHMhSTFEpyfyVOGSCnwqrIZ9BBCU9xwBlVIOm3yyUPt0DB9ZYNiwRT2nvB9hU9_NCZ74nbeg0VDMNfLPWLPhz9dkXYyCcuIfm&amp;xkcb=SoCe67M35khjVngPSr0KbzkdCdPP&amp;fccid=1b1d4e4d824a19b0&amp;cmp=IOConnect-Software-Solutions-Pvt-Ltd&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Application Developer</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=e1404ba9eae9bb5e&amp;bb=HDABu8tXO71zMzm5kKxvXW-UG7AdeZh4uKeYib1ZiQ6CyF0KFUrFJ9029mo8ts9lrLv63AXBUI5-_yVLcQ31ojEP6rt07Xfd4vwsHM2U2S3YZXVnCukRUXm6R5GWH-26&amp;xkcb=SoAD67M35khjVngPSr0JbzkdCdPP&amp;fccid=057abf3fd357e717&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jr. Software Developer</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OMFYS Technologies India Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pune District, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=f7f65057220f2b1b&amp;bb=HDABu8tXO71zMzm5kKxvXTbM50WSOalHijeWFAldJ7HLy6lOaQK-ZRYdoj_gUb3bYvvGPKSW5-azwc5ywsw2cF_n_LoAwLxYBMIF9hQz7hkHLo_yKpqUgqdmB0qd3z0Y&amp;xkcb=SoC367M35khjVngPSr0IbzkdCdPP&amp;fccid=c3eaa704469f6d2d&amp;cmp=OMFYS-Technologies-India-Pvt.Ltd&amp;ti=Junior+Software+Engineer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fresher software developer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suavis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=afa53d8bd1b36430&amp;bb=HDABu8tXO71zMzm5kKxvXU6eF5h2G7Gx5_ptCwoUhZBE-n4fdHUbQe1n1bA0ZiTHFHm38VAm8NOvEJdnvmnhnDI9ivS5BKXghR4A6vxmCckRG9cgPbluNOTF8wGGOzbN&amp;xkcb=SoA567M35khjVngPSr0PbzkdCdPP&amp;fccid=91adf09135e913d6&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Setoo Solutions Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=397d3df8dc18c198&amp;bb=HDABu8tXO71zMzm5kKxvXU6eF5h2G7GxHZ97vAfbVO2Wy9fgsPBzDNDEXoUf8uMNtBiJt2nLUL9Ia5KccChi6t34ZUTsOj6UXeLVaMBtirCxErKTS0HtUoeYK-UJh1t6&amp;xkcb=SoCN67M35khjVngPSr0ObzkdCdPP&amp;fccid=ac6739a284b22a29&amp;cmp=Setoo-Solutions-Pvt.-Ltd.&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Backend Developer Intern</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Engineers Cradle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kothrud, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Typically responds within 1 day</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=c7f777fc3905dcfc&amp;bb=HDABu8tXO71zMzm5kKxvXZb981nXiHEaM0q9e4FfIEGnhSk9dpB7dQvPQuGFIBxk4lIlvnMLheMCCKbHiHaEHh2-BOIlrXLvNa0-BQuO77FUyTzHeUIVP1fCoLjTL5-r&amp;xkcb=SoAQ67M35khjVngPSr0NbzkdCdPP&amp;fccid=b1b17c80404cc8ac&amp;cmp=Socio-Engineer-Pvt-Ltd&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Java Developer Intern</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vertical Software</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=9332d113312f097b&amp;bb=HDABu8tXO71zMzm5kKxvXZU3jnrXq4a61LB47M8S7LrLHk9cREMM5y1yM8tjC6iXqXwZ5UqanXdJT2XKUpzUCaK4lx0f3drlpRbIh7gSsYY7fmKqer65_ND8K8anCYi3&amp;xkcb=SoCk67M35khjVngPSr0MbzkdCdPP&amp;fccid=c531f050cf3adae0&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jr. Front End Developer (Pune Based)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xogene Services LLC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=d9ff61c0fe5198b6&amp;bb=HDABu8tXO71zMzm5kKxvXWq6IC-rLLspZO5rmMtV2TOWEhcSBKB8ptWzvGKXAA8xaO6jR5hF7zxjIOFuLmlL-rGcMROIj2qbcIK3BnBPGMRypLY-0wGzzKgbmsWRxbwB&amp;xkcb=SoBN67M35khjVngPSr0DbzkdCdPP&amp;fccid=1470b0a1e1a284a0&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Trionxt Software</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nigdi, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=b4994cb59d023611&amp;bb=HDABu8tXO71zMzm5kKxvXb2zNrDLG3yHv2fkdSjN0o8DE9J37MQj3G0h9em6Lh4qN8NG6yJydt3kVDUT_XDBGkmHPml9PAj-GjonEDLVhTPvHIuPRNcxHr3-3oVybmnR&amp;xkcb=SoD567M35khjVngPSr0CbzkdCdPP&amp;fccid=f5256ade282e5fef&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jr. Back End Developer (Pune Based)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Xogene Services LLC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=ca046cc525088254&amp;bb=HDABu8tXO71zMzm5kKxvXRQ0n8k68ZiQvMeP9scUPkwKAv1dHsb_FDmYLG1AiLtELXKEIPKZqP19LkYN4-reQsJyrOTdXVKVCKLZ2VUbV4x7-7sxSjw4NxGiRJCRTESP&amp;xkcb=SoBk67M35khjVngPSr0BbzkdCdPP&amp;fccid=1470b0a1e1a284a0&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Katalyst Software Services Limited</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Up to ₹8,00,000 a yearFull-timeDay shift</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=3b3b701fa1bffe19&amp;bb=HDABu8tXO71zMzm5kKxvXXT8P4XlOCRpkpE1Kp_klq2teKA24YeTdRxp88-2HFhpLneyLdAH8gopDdD1C40wOt4j7dOgggn_RK2pXwgETI3PcFmkOZGXovf-x-HZxcTG&amp;xkcb=SoDQ67M35khjVngPSr0AbzkdCdPP&amp;fccid=661f9b96d06ab18e&amp;cmp=Katalyst-Technologies&amp;ti=Front+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JAVA Developer-Junior Engineer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LinkedLoops</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=81973a05d2d8366b&amp;bb=HDABu8tXO71zMzm5kKxvXf3f0w_2V9VrvBK9kH_gRgD8aOOzvnS2kezbksKMLR7LWR6IMzx54qs7wOjXWxKgWKTeTFg6d66ku-5EoOpzGll1ereGx44GuGDHaVoqymHt&amp;xkcb=SoBe67M35khjVngPSr0HbzkdCdPP&amp;fccid=037b2d592cdd7eb2&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Website Developer Intern (HTML, WordPress)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>First DigiAdd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kharadi, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=26ec82a14e7889ba&amp;bb=HDABu8tXO71zMzm5kKxvXUoIZnSQlL5eaiBr38VBMXkFfaBGWpJskaYVYDP1nBv_pOqkvSI24rH46Vqb5urUZWN7NK-KdRfrBhLT70rzojSaAZIo1vwSdwcxpFgZqvr6&amp;xkcb=SoDq67M35khjVngPSr0GbzkdCdPP&amp;fccid=25938532037d66d6&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Application Developer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Max Secure Software, an Aura Company, helps customers monitor, manage, and protect against the risks associated with their identities and personal information in a digital world. Max Secure Software is dedicated to creating the world's most comprehensive portfolio of industry-leading cybersecurity solutions. Our vision is to become THE go-to resource for every cyber protection need individuals may face - today and in the future.
+Join us for the ride!
+ About the Role:
+Based in Wanawadi, Pune, and reporting to the head of our rapidly growing Anti-Virus team, you will help design and build the next generation of Max Secure's Anti-Virus Offering, which currently serves millions of customers. We look for developers who have a passion for excellence and give our teams freedom to innovate with groundbreaking technologies.
+ Day to Day:
+Be proficient in server-side development and optimization of data, including database creation, management, debugging and creation of efficient API's
+Be proficient in Cloud technologies, AWS services, creating AWS API's, Dynamo DB, S3 bucket, elastic search and AWS databases
+Integrate data from various back-end services and databases
+Create and maintain software documentation
+Create user-friendly and intuitive interfaces
+Create and analyze reliable and secure back-end functionality
+Maintain, expand, and scale our website
+Remain knowledgeable of emerging technologies/industry trends and apply them into operations and activities
+Collaborate with front-end developers and web designers to match visual design intent
+Should have worked with Github, CI/CD and Jira
+What you bring to the table:
+Must have B.E/B. Tech/M.Sc. in C.S/IT
+3-5 years' experience
+Proficiency with languages such as Java, MySQL, SQL, and Python
+Proficiency in at least one of the following: JavaScript, Ajax, jQuery, HTML, CSS, Bootstrap
+Understanding of object-oriented programming
+Experience with the design and implementation of APIs
+Must be willing to work hard
+Good analytical capability and communication skills.
+It would be great if you also had:
+Experience with Security Domain
+ As part of Max Secure Software, you will:
+ Solve real customer problems. Max Secure's point solutions allow consumers to address their immediate cyber protection needs. Our mandate is to continuously anticipate our customers' evolving digital security needs to create best-in-class solutions aimed at keeping them safe.
+ See your impact. We are a scrappy, nimble organization where individual contributions are needed and valued. You will see your impact every day.
+ Accelerate your career. As we expand, you will have the opportunity to learn new technologies, products, and markets in a fast-paced, growth-oriented environment.
+ Most importantly, you'll get to work with other talented people at a company where people matter. If you want to put your fingerprint on an organization and leapfrog your growth, this is the place for you.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Typically responds within 3 daysFull-time</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=a71fbe78d2861cde&amp;bb=HDABu8tXO71zMzm5kKxvXWLuKvcumo_004x9bHvViW9glxTzM87x2wbA0GKIv5_rXxLbkALBVbRvRxW19XqAJ5R3m_j3n1pedWKu-rft7T6xYhS7Sj1KNw%3D%3D&amp;xkcb=SoB367M35khjVngPSr0FbzkdCdPP&amp;fccid=a4e4e2eaf26690c9&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Delighteck</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=33c67d7269aff403&amp;bb=y4RvsU-pzxOD1_Mly_RiNOn5Qy1J5Fm3iK9Sss11hGBAPocHPhMw0wJ1YIfHFfLCN5l9MY3tzscimIfmmOTgddhgZ0pZ4CyrhNWiSfEqy_4aCdrvO7nY77FinXY5w-kK&amp;xkcb=SoAG67M35khh9iQAsZ0LbzkdCdPP&amp;fccid=f88fc65cc1e89efb&amp;cmp=Delighteck&amp;ti=Front+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jr. JAVA Developer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IFS India Mercantile</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=954e4fa3f97e1bb1&amp;bb=y4RvsU-pzxOD1_Mly_RiNPgX6MdFkJEerQjtwJxQx2PxrGrY7XDJE5oC5-MhijGjt8EpOD99365WOE7qlk_btCQ1O3q3xsmr61-36stRvmly_3pIo2Tcq1I-kehbVOfO&amp;xkcb=SoCy67M35khh9iQAsZ0KbzkdCdPP&amp;fccid=5d27f57fa85004f1&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Technoworld Softwares</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Remote in Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>₹2,00,000 - ₹3,00,000 a yearFull-timeDay shift</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=cc0935db0ad6d88b&amp;bb=y4RvsU-pzxOD1_Mly_RiNEASr-VAsLoRoeRK2UzmvA0HdQ7HI9hQX-khD-SIZc2eC8mvvq5pDUiydUIsw1YT8HUq2AHWNZidLx75EyjGpLO6HUxTPp-7ZrWWckzqLRDE&amp;xkcb=SoAv67M35khh9iQAsZ0JbzkdCdPP&amp;fccid=c9048e49e2ef3c17&amp;cmp=Technolearn-Trainings&amp;ti=Java+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Salesforce Developer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Twopir consulting pvt. ltd.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Phursungi, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Typically responds within 4 daysUp to ₹2,50,000 a yearFull-timeDay shift</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=e5bf67efece5c153&amp;bb=y4RvsU-pzxOD1_Mly_RiNDJYY1Byrvlold0N7vLxVQg8ob0iwY6oey8_YP9UWlu-gnI0xc9RDLz150H0ZtCoKTzw1wZ3jVmVRl87LbtTCIeYb2YlAXreFBBoxZezoJy5&amp;xkcb=SoCb67M35khh9iQAsZ0IbzkdCdPP&amp;fccid=106f7c82bdd286af&amp;cmp=Twopir-consulting-pvt.-ltd.&amp;ti=Salesforce+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Intern Developer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Paexskin Solutions</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=504789047993c06c&amp;bb=y4RvsU-pzxOD1_Mly_RiNArjD7yi0SVpRHrD_exW58Mwj1nlQ8iUiPL8HOrspr3EZ_VNMJYmpgpZI9N_8UZQ28toGxLPWNKDeA9_tCO2ShiKtQOqdm4BwAeEAtSD25_E&amp;xkcb=SoAV67M35khh9iQAsZ0PbzkdCdPP&amp;fccid=e4c1abc499cec21b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>JAWK Softwares</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=930b3a7cb3f7cc0c&amp;bb=y4RvsU-pzxOD1_Mly_RiNArjD7yi0SVpEHwtJg8c3Ttf2hbUFrKQu2h8fPgt_Ss_i1sEJ58-t2eEl6qO3aVeBWNgdEoZwoColXH65UIn9J_TNv5TLrsSeZ0OWwiRCWEp&amp;xkcb=SoCh67M35khh9iQAsZ0ObzkdCdPP&amp;fccid=c3c217ab2e3a9442&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Outmarch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=0c9da002977fb9bd&amp;bb=y4RvsU-pzxOD1_Mly_RiNApEqtODxPretO0bMr20y55dnye2skKRrUdKr5keQeLhXh4sIBa-gTx7u3B-E_u-W9e9a-xjzwm-YdITRxcb4WAFHxddlsoF5FAs-7D_cgPr&amp;xkcb=SoA867M35khh9iQAsZ0NbzkdCdPP&amp;fccid=5b5fd8863d6dd45e&amp;cmp=Outmarch&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bluewhirl Technologies</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Remote in Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=a5188cb88f46b6cf&amp;bb=y4RvsU-pzxOD1_Mly_RiNDm-8HPIoI75s-jJgxUs7HRuHyh0BBB6B334QKtKByFzgpSlpKeHpAOsVH6CEinJFS_MbDcZXlf8rVEyhevRJwm0vL2V1zy7WYRAoOJz-Bua&amp;xkcb=SoCI67M35khh9iQAsZ0MbzkdCdPP&amp;fccid=58683ff0487d130d&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Java Backend Developer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hotspot Retail</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Remote in Pune District, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=75b5fcd594525066&amp;bb=y4RvsU-pzxOD1_Mly_RiNHM-DgswsaGB4I0HiZMFIjuEcvxHW27nRVtEL0yDPasmYFsDpp568sW36uFeYMlOgNQq3A0_gi5ifhEit_BBeuoDNihr2fwWZd2xZvHs-xvs&amp;xkcb=SoBh67M35khh9iQAsZ0DbzkdCdPP&amp;fccid=63f6af0762cfe481&amp;cmp=Hotspot-Retail&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Integrity Tecnologies</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Baner, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Typically responds within 3 days</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=7318dadb4c785933&amp;bb=y4RvsU-pzxOD1_Mly_RiNKFU1aB-XdCg-NYC0goHxmULxgT-p0T_0GXtCA4ma4_QHrZBEF3KBCId7QlgVKFNkVcp_IUkGlOel4XcR3KNXZUsC5mjDBVsJ3BhtWROy9wf&amp;xkcb=SoDV67M35khh9iQAsZ0CbzkdCdPP&amp;fccid=84bc9d49c27fd499&amp;cmp=Integrity-Tecnologies&amp;ti=Java+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Web Application Developer (ReactJs)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pyxidia Softech Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Typically responds within 3 days₹15,00,000 - ₹22,00,000 a yearContractual / TemporaryDay shift</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=f38f4b8305892bd2&amp;bb=y4RvsU-pzxOD1_Mly_RiNG-XZz9gJVbLfJqNWd6TKMZmct91bZjTgaSGylLxzpQEs7LEuwV2f1CqW9pWqFTAc21V-8GrGcVNW3BUoiVRoAZspth1TJdM6xNo-EFKnms0&amp;xkcb=SoBI67M35khh9iQAsZ0BbzkdCdPP&amp;fccid=56e340e7c8d5bd17&amp;cmp=Pyxidia-Softech-Pvt-Ltd&amp;ti=Web+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Junior Python Developer</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Alpha ICT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=3acf177fe0832ffb&amp;bb=y4RvsU-pzxOD1_Mly_RiNArjD7yi0SVpLT_stDgtt2HcKxVv4NHyuRRQO9EBXyU7IKnB8pBUg72NY4NzJnPF_pedaR-ushOCYS1lFIrqkPZC5XCEf9XbenwCfW8LlMZg&amp;xkcb=SoD867M35khh9iQAsZ0AbzkdCdPP&amp;fccid=d3812d3402a7c8b7&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Front-end developer</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HubEngage</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Baner, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=db3c8ca6ce03609c&amp;bb=y4RvsU-pzxOD1_Mly_RiNFJBmZ2s6aDezQITpqsOzJjytkstj20ST93t6qH8L3n0FACZwutr0ViTsu6Tyz80wERr4iR-lsQJzNAg5cXjboLi-yI7bKlCrM6gqQNN0c09&amp;xkcb=SoBy67M35khh9iQAsZ0HbzkdCdPP&amp;fccid=22de0f0e1ebc4495&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SQL Developer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Getnaukri</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=2e651030f586fa05&amp;bb=y4RvsU-pzxOD1_Mly_RiNAuk0zCQhSSEbYrrrGjjfFD8wDgYWND_jbnQF0iBJVrXjt7Jkj8YqdPAadSQB1DPMFz8IFLIBCLqAK3QvWIHcwP9XrvDk1r8mwuFcRIwKnfm&amp;xkcb=SoDG67M35khh9iQAsZ0GbzkdCdPP&amp;fccid=4e2f72bced6b5fba&amp;cmp=Getnaukri&amp;ti=SQL+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360 source infotech</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Swargate, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Role Definition: -
+As a Front end Developer, you should be comfortable around both front-end and back-end coding languages, development frameworks and third-party libraries. You should also be a team player with a knack for visual design and utility
+Responsibility Deliverable: -
+Manage the end to end process of an application.
+Analytical &amp; problem solving capabilities.
+Work closely with the team &amp; finish tasks on time.
+Familiarity with SDLC.
+Tasks and Activities: -
+The management of the entire software development process, from conception to deployment.
+Updating and maintaining the software after deployment.
+Controlling the whole life cycle of the software and application development process.
+Overseeing and directing the evaluation, creation, and implementation of software.
+Directing the automated testing and giving management input as the project is being developed.
+Modifying existing programs and testing the modifications.
+Troubleshooting and fixing bugs and other coding issues.
+Writing effective APIs &amp; technical documentation.
+Working with data scientists to improve the functioning of the software.
+Familiar with :
+React, JavaScript, HTML5, CSS3, Git, mySql
+Qualification: BCS, BCA, BSC in Computer Science, MCA, MCS, Any degree in computer science.
+Employment Type: Full Time, Permanent
+Key Skills: Frontend Developer
+Send your CV on: hr@delighteck.com
+Job Types: Full-time, Internship
+Pay: ₹1,000.00 per month
+Benefits:
+Paid sick time
+Schedule:
+Day shift
+Monday to Friday
+Supplemental Pay:
+Performance bonus
+Yearly bonus
+Expected Start Date: 04/11/2024</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=9db3af13c4205358&amp;bb=y4RvsU-pzxOD1_Mly_RiNNwn8ie2-uoEOQL587RtcVOPoEuEOPYBoGzFhr4I5Kqn8ZKTUg5-62mdiLpRT1kMMrxG_baqZDI-oGp6jRLp08iKGhQK_dteHrqQ4lHdwN_5&amp;xkcb=SoBb67M35khh9iQAsZ0FbzkdCdPP&amp;fccid=0de7ac206c2c927f&amp;cmp=360-source-infotech&amp;ti=Web+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HiringGo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=5255f9f7dadc1fbf&amp;bb=dsfU3xgpW_7kRcIjUH7fiM2uXzcZtO1M_sn-_3JCbuMcJBJ14v-eoadgMgZoRHhLstlsXaqgH6K7HKyjQpkGtSpzHsyoZ2wO2vAN0AasrWRQOjgo2uhexEG_XX4dkkMo&amp;xkcb=SoCd67M35khgDty2kZ0LbzkdCdPP&amp;fccid=6821276ed06b47ca&amp;cmp=HiringGo&amp;ti=Front+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Trainee Software Developer</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Trdez Investment Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=92432eaca042fad6&amp;bb=dsfU3xgpW_7kRcIjUH7fiBqZc9IWuX2Xmn0tyfjmuF9l4sHMs3DPzc9jRWW0gIrTGKBLAllqxijswGQbiC3JKGR8iLU9kAaYOu3mPjdz4yQ7YN9nZRjny8oEs4sYUQ6Y&amp;xkcb=SoAp67M35khgDty2kZ0KbzkdCdPP&amp;fccid=100017cc140fe001&amp;cmp=Trdez-Investment-Pvt.-Ltd.&amp;ti=Software+Engineer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Wipro Limited</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=e01636e5aaaa4692&amp;bb=dsfU3xgpW_7kRcIjUH7fiObsxitalcnN5xaenbHR0ViqP9rQ9P0h5szdg2uu8hpJM0DbmcPt6jl0aQZ0mwMC8JBpR_dBEqJNUjZceS-eZ7QPXlkv7Ol2KU1ODrXt_hvU&amp;xkcb=SoC067M35khgDty2kZ0JbzkdCdPP&amp;fccid=8d25321c1defe73f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AimCab Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kharadi, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Typically responds within 2 days</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=0c337c62545f52b9&amp;bb=dsfU3xgpW_7kRcIjUH7fiJRBnVXJ1WscvDhNL9qfZ0C9SH0WgDbpuzNjBemksOSfIVZTLkOkNZaEMdvY4PXKBpHh5sVZO0wdqMhZrA1X8Q7HNoLlZbzHPP0A-2mkqHdj&amp;xkcb=SoAA67M35khgDty2kZ0IbzkdCdPP&amp;fccid=c93a343a47501991&amp;cmp=Aimcab-pvt-Ltd&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Java Backend Developer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Parkar Digital</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Typically responds within 1 dayFull-time</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=c261b6749ece9a46&amp;bb=dsfU3xgpW_7kRcIjUH7fiBPPdrCby2-iwvLGbUYAEVmvvV8Cl2nGCZDsDx1bhkOV1JEtfkwuRm7mBtLyYt3PQVrXnkPw9fUFqTMfxdIxNFIj7zCoM-1hLuRNrEPEhgbF&amp;xkcb=SoCO67M35khgDty2kZ0PbzkdCdPP&amp;fccid=9faab2b79ea28511&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jr. Backend Developer</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Amura Marketing Technologies</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=4306d3c79a9f4059&amp;bb=dsfU3xgpW_7kRcIjUH7fiPtYmMPONo4hyNSt5WFC_oMYBSuED-Cj-sDcIIY4ZHA0rNLkIYpwcBiLPDqF1UZGeJ_a4pTDl1hmTUw0fWIHazD_ntD6FxLhi5C49WLY2tc0&amp;xkcb=SoA667M35khgDty2kZ0ObzkdCdPP&amp;fccid=8d3131b3ab52796f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Web Developer Intern</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MajorBrains Technologies</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=7a8a50e9ed08bfd0&amp;bb=dsfU3xgpW_7kRcIjUH7fiBqZc9IWuX2XWQpp6YH47piV9Wo9Rs6e7I_0Zo-xrBswt4RRGvzh5APks2ozK4s6DGgdWfvddjcksZjl9u-fPbYJ_dYtuQDgJmOORO1JufOe&amp;xkcb=SoCn67M35khgDty2kZ0NbzkdCdPP&amp;fccid=e65c7f36b3b9ed47&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Thinkitive Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pimpri-Chinchwad, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=1cf440adbabf9974&amp;bb=dsfU3xgpW_7kRcIjUH7fiB8E9TDdd_Kg0eRSXvQa7pUFrwD0CXst4cBENEDQ8n_9zOqJXIHGfRyWvK3mKt0n75kOrzuBZyNFvGM-ORpfBCFM18CNXDa4mcoBZxeayZDO&amp;xkcb=SoAT67M35khgDty2kZ0MbzkdCdPP&amp;fccid=25cbc265e653cda6&amp;cmp=Thinkitive-Technologies-Private-Limited&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Clarion Technologies</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=7d742fd6a56cbc52&amp;bb=dsfU3xgpW_7kRcIjUH7fiNZ3la90ZlFPhILslU63B9SW_jBvAziAe2Zuu2QOzlpAJNdnRkHjQMmUwRV5ltbffB9QDEmVWwcjVT_ObfvvX8-01pi8UV0TEiMUnkYFNoB1&amp;xkcb=SoD667M35khgDty2kZ0DbzkdCdPP&amp;fccid=99521e935e25c367&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jr. Python Developer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tour2Tech Academy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Remote in Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=2f4c49ed0dbaba51&amp;bb=dsfU3xgpW_7kRcIjUH7fiGIWQerKntCy6WK-Lu7iVFIU20QpdhGDPWMG2zb7pRS8ZCpri6vx83Y2fF5IMLHp8ighnkaeV6wtXU1ZVnDDPZCPTEQgDQOOto2e_-ppf5ng&amp;xkcb=SoBO67M35khgDty2kZ0CbzkdCdPP&amp;fccid=e4044b7b6adcf850&amp;cmp=Tour2Tech-Academy&amp;ti=Junior+Python+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MedTech360 Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shivajinagar, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=922c118905229bc6&amp;bb=dsfU3xgpW_7kRcIjUH7fiK41snsHuyEgOyZMVWHQcDinRV0QC-S9IrygE7d_b8u80xdBpu8ugyIvd-S1i-TGdfwIc5vgMEXwxnFeBGM2jrVCjS0BR8zcngE9r-b8d6e5&amp;xkcb=SoDT67M35khgDty2kZ0BbzkdCdPP&amp;fccid=4d3b4df4c857a038&amp;cmp=MedTech360-Solutions-Pvt-Ltd&amp;ti=Full+Stack+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Website Developer</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Digital Flame</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=3492b481e70c0960&amp;bb=dsfU3xgpW_7kRcIjUH7fiM2uXzcZtO1MFxuY_UEPV3QfkhzWaqPYocoe7Z6osBODsWNNDSB7PU9m6HM6Cspv-pEjmX0HhyPr0MH0q7sahjaAnbq0eOS-XSF5O24YUGUX&amp;xkcb=SoBn67M35khgDty2kZ0AbzkdCdPP&amp;fccid=f4c960581591e12f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SQL Database Developer ( Male)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SR - Software &amp; Placement Services</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Bavdhan Khurd, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=51d9331cb95e5421&amp;bb=dsfU3xgpW_7kRcIjUH7fiLgipTGg92UVOCsN3qOqAvQRAIDKbYmSYBi80tUDnOgibIHmUknBH47secbPzX8jiL65CmUJYxKS0o1jxmy9lxfh2Fcar1U-7X9Go9q7uhGK&amp;xkcb=SoDp67M35khgDty2kZ0HbzkdCdPP&amp;fccid=8b3d534306928b92&amp;cmp=SR---Software-%2526-Placement-Services&amp;ti=SQL+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dot Net Developer</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Infolent Technologies</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>₹6,00,000 - ₹12,00,000 a yearFull-time +6Monday to Friday</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=d7c362dfa3896198&amp;bb=dsfU3xgpW_7kRcIjUH7fiG3WgyUWzdJl4HGXkZcQtnMkqtTch_HgFhiz4juHOmFj7yHweuuT74vl1Fy9iolYOdISYMpv4c4-f0T3--Ov5lK3Ijjfj8fO5eDZ6znypKs_&amp;xkcb=SoBd67M35khgDty2kZ0GbzkdCdPP&amp;fccid=eab27a6f1adb1850&amp;cmp=Infolent-Technologies&amp;ti=.NET+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Job Summary:
+We are seeking a motivated and talented Front-End UI Developer with 1 to 3 years of experience to join our dynamic team. The ideal candidate will have expertise in HTML5, CSS3, JavaScript, Next.js, and Angular, along with strong communication skills. You should be able to translate designs into pixel-perfect, responsive code and develop interactive, dynamic user interfaces. Prior experience in creating animations and effects on web pages is a plus.
+Key Responsibilities:
+Convert design mockups into fully responsive, pixel-perfect web pages using HTML5, CSS3, and JavaScript.
+Develop dynamic and interactive user interfaces using Next.js and Angular.
+Create smooth and engaging animations and transitions to enhance the user experience.
+Collaborate with UI/UX designers, back-end developers, and the rest of the team to deliver high-quality projects.
+Ensure cross-browser compatibility and mobile responsiveness.
+Write clean, maintainable, and efficient code while adhering to best practices.
+Communicate effectively with team members and stakeholders, including delivering progress updates and feedback.
+Demonstrate strong professionalism, integrity, and work ethics.
+Assist in code reviews and contribute to continuous improvement of processes.
+Key Requirements:
+1 to 3 years of experience in front-end development.
+Strong proficiency in HTML5, CSS3, JavaScript, and experience with frameworks like Next.js and Angular.
+Ability to translate Figma/Sketch designs into pixel-perfect code.
+Solid understanding of responsive web design principles and mobile-first development.
+Experience in creating animations and effects for web pages.
+Excellent communication skills in English—both written and verbal.
+Strong comprehension skills with the ability to translate requirements into clear, actionable tasks.
+A team player with a professional attitude and a strong work ethic.
+Ability to work collaboratively in a fast-paced, agile environment.
+Preferred Skills: 
+Familiarity with version control systems such as Git.
+Understanding of SEO and web performance optimization techniques.
+Experience with tools such as Figma or Adobe XD.
+Job Types: Full-time, Permanent
+Pay: ₹300,000.00 - ₹600,000.00 per year
+Benefits:
+Health insurance
+Paid sick time
+Provident Fund
+Schedule:
+Day shift
+Weekend availability
+Supplemental Pay:
+Commission pay
+Quarterly bonus
+Yearly bonus
+Ability to commute/relocate:
+Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Education:
+Bachelor's (Preferred)
+Experience:
+total work: 1 year (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=d6878897c8263305&amp;bb=dsfU3xgpW_7kRcIjUH7fiHB9e4Awo0Xe-rbXgJ-uVqF0f98UTwgO8Q-Jpu9l9KsKlNjk0sYVwogW9dzqn04YNDjmu6R5_oi_Ts1a8i1oUhlET8-aYurxTQ%3D%3D&amp;xkcb=SoDA67M35khgDty2kZ0FbzkdCdPP&amp;fccid=734cb5a01ee60f80&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Website Developer</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Digital Flame</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=3492b481e70c0960&amp;bb=X8zdaYO4tB_76iUbATfp33Lt6qOdz0hljHmcNM3GCVMbNldkCPTWXud5bdSK76EbA1iNGj1WYQHpEo9qQAznzBlhFa27Y8pHhZoL0P6LFl13br9mLpnu9p9WfRBeGMWV&amp;xkcb=SoDV67M35kh-pRAPSr10bzkdCdPP&amp;fccid=f4c960581591e12f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Microsoft</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=d6878897c8263305&amp;bb=X8zdaYO4tB_76iUbATfp3wQLYlVr62GfairUbKpPJ40S_6UD1zhjagkkIdj5bcKcnZNI12LS7j0gPGlwpHlsSk8bHoSLrAvmf_E5bbM8Bf0jPxtttj-1cA%3D%3D&amp;xkcb=SoBR67M35kh-pRAPSr2KbzkdCdPP&amp;fccid=734cb5a01ee60f80&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SQL Database Developer ( Male)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SR - Software &amp; Placement Services</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bavdhan Khurd, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=51d9331cb95e5421&amp;bb=X8zdaYO4tB_76iUbATfp3zj4mccJM6m7jTJezdhZyKfG8mSg66XRRDaBYc5WDMkA7AUXOSKxgxXBLuxDPJmHDoK6qQ3T9GMIxI7H0NjwfKu-zSWBHSM1mNegCMOm6VAI&amp;xkcb=SoB467M35kh-pRAPSr2IbzkdCdPP&amp;fccid=8b3d534306928b92&amp;cmp=SR---Software-%2526-Placement-Services&amp;ti=SQL+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Dot Net Developer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Infolent Technologies</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>₹6,00,000 - ₹12,00,000 a yearFull-time +6Monday to Friday</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=d7c362dfa3896198&amp;bb=X8zdaYO4tB_76iUbATfp36XwFB6vq6dl6NBnmDLQWBKJFO5SzpZfrXYyTQjiHDY631Q_3a6ZhZaZjrqWlTOAfberfefw12pTLe4RUESf9R85xuNu9rzHSh4fdwGZ-1I0&amp;xkcb=SoBC67M35kh-pRAPSr2ObzkdCdPP&amp;fccid=eab27a6f1adb1850&amp;cmp=Infolent-Technologies&amp;ti=.NET+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Frontend Developer Internship</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Engineers Cradle</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kothrud, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Typically responds within 1 day</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=1cb57e9347de5ee4&amp;bb=X8zdaYO4tB_76iUbATfp3xN1pI3LeibTWh6RsbU1zraV_yFNaYncpGbxtbZgUlvNl2VbeDHvXs8Oe--GADrGk0-3VO9H568tr13qQZWAoSqMtny5DnmlNQWr4J91fRrH&amp;xkcb=SoBr67M35kh-pRAPSr2MbzkdCdPP&amp;fccid=b1b17c80404cc8ac&amp;cmp=Socio-Engineer-Pvt-Ltd&amp;ti=Front+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Telosa Services Pvt.Ltd.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=86572bf9031fe97d&amp;bb=X8zdaYO4tB_76iUbATfp3x9pt9MjE1JEWfKNUrMc1F2fjEeo--0jYNC2UYijmaDJ0UMLKBgVlzkwkGEC1xsD0rHqYE694KD8TnJifIJiDRzoSvByyAjvEsfq5t4fmnZ4&amp;xkcb=SoCC67M35kh-pRAPSr2DbzkdCdPP&amp;fccid=7c8e976e65ee2136&amp;cmp=Telosa-Services-Pvt.Ltd.&amp;ti=Java+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Java developer fresher</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Codetech Software Services</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wadgaon Budruk, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=ee45699766d4626a&amp;bb=X8zdaYO4tB_76iUbATfp3wizVUvGS4mI0XbzH7BNjMPF9RFPTV2E4F4Ip8EuMnaAyVraoPNEHSpQlmbvM220DjUNHH6S2e_hJGLUn_W49bHKmVwzm8qYTfeKNijqQeP3&amp;xkcb=SoCr67M35kh-pRAPSr2BbzkdCdPP&amp;fccid=f6398045bf4caa4f&amp;cmp=Fusion-Project-Centre&amp;ti=Java+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Camunda Backend Developer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Innovecture</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Remote in Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=7f6b3d356e3bf3e0&amp;bb=X8zdaYO4tB_76iUbATfp33wm3kVpUB5U4mp7UMBGDjbUf186afSRtbDArJFHTSJnwBQufV2taQCRQxMn-iNUQGc0hvECmgf2D3v1Jkmb7ryxsLKoHaqIBcGBUCVJQFAm&amp;xkcb=SoCR67M35kh-pRAPSr2HbzkdCdPP&amp;fccid=4c1a46b64f100094&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Junior Developer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QuizTarget Technology Solutions LLP</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=72d48ff1a10f48f7&amp;bb=X8zdaYO4tB_76iUbATfp3w58pp2CIxsfly73pyXZ6ZMuXWECcAEFknBqRJzBtfF_XuVqfiwbYtJUpdCEPVqxpVoIY5n-ST5DOYBu0VfzQcV07G_XBPt_Fck6g2BFYJkE&amp;xkcb=SoAl67M35kh-pRAPSr2GbzkdCdPP&amp;fccid=0bd2ee0571c522a3&amp;cmp=QuizTarget-Technology-Solutions-LLP&amp;ti=Junior+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Software Developer Intern</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dalnex LLP</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=342b21588b1c8f79&amp;bb=X8zdaYO4tB_76iUbATfp35J6jdVd3WcOi8UAUBrkaOpjZrr2cMJly97iZqAwzmNZ2XCcKTzb5eJ_oC8fzSJ-HJP4MzRW1zo_mT_BiqtzI-0hpimuFhrt8-OyzRzatruf&amp;xkcb=SoAM67M35kh-pRAPSr2EbzkdCdPP&amp;fccid=ea47cf221c8e0523&amp;cmp=Dalnex-LLP&amp;ti=Software+Engineer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JR. Python Developer</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Redxcel Solutions</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=fb10f1faf181dff1&amp;bb=X8zdaYO4tB_76iUbATfp3zCVqPHCHkBrvAjwM6kCZkxWatD4mSXLFpgauW5aJCCpaLQgAMeI6Slw5J5R8PzR3ordHOPYU9NJXRVZIEMujR8gwR6AXzdQ5wOFdbbqRQaP&amp;xkcb=SoCf67M35kh-pRAPSr2abzkdCdPP&amp;fccid=2a7d9bb4a2fee78b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CodeToArt Technology</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=e9a0a1c4eb8d1822&amp;bb=X8zdaYO4tB_76iUbATfp30Gf3nwJdDPVj3pcAtOtDBUYw2xnoKogDJ5NIHI0wNu7ExSA92_D7jckOcWSrZ45KpNC_lWKqhlP9tH_NieAQRbirZ4jsMB6FDhVWWQHWMux&amp;xkcb=SoAC67M35kh-pRAPSr2ZbzkdCdPP&amp;fccid=830588efe9875c04&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SQL Developer (Only Male)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SR - Software &amp; Placement Services</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Bavdhan, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=3f127b095d5f64fc&amp;bb=X8zdaYO4tB_76iUbATfp37Cio0J7Q1AArnx4JEZNPNPRtNyRuR15nWaYqfDr-t85kfW_TV6ls8MBAhCZCzf-hAe6fdqQ6q4sSPHfwVH7duEecsRvJj5V3kRHlEToSDdf&amp;xkcb=SoA467M35kh-pRAPSr2fbzkdCdPP&amp;fccid=7c4c8374f1647e93&amp;cmp=SR---Software-%2526-Placement-Services&amp;ti=SQL+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Quickensol IT Solutions LLP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=8e376c237137d49a&amp;bb=X8zdaYO4tB_76iUbATfp32nyMvYOUKOnJtUt9iJ9kMZ6h2FVSnIl7-2mRTUgF33CLxqROoIjD0vy5V67_vYE5l-r3oy85Xtu5ueXJPsBynjHiCY4m9jIUJmNX1c9w4CA&amp;xkcb=SoCl67M35kh-pRAPSr2cbzkdCdPP&amp;fccid=f4356fd53808c6af&amp;cmp=Quickensol-IT-Solutions-LLP&amp;ti=Python+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Python Django Developer (Software Engineer)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VIAVI Solutions</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Experience: Fresher/ 4+ years Location: Pune Salary: Best in the Industry
+ Company Overview
+Digital Flame is an online marketing solutions company that helps individuals and businesses unleash their growth potential by providing highly reliable, genuine, and trustworthy marketing services.
+Digital Flame is known for its process-oriented approach with a keen eye for innovation and detailing that helps brands find success.
+Digital Flame presents an opportunity with the Sales Executive role for the dedicated, ambitious professional looking to grow in their career and unleash their growth potential.
+ Primary Purpose
+The primary purpose of the Website Developer role is to design, develop, and maintain our organisation’s websites, ensuring they are visually appealing, functional, user-friendly, and aligned with our business goals.
+The Website Developer will collaborate with cross-functional teams to create and optimise web solutions that enhance our online presence, user experience, and achieve our digital objectives.
+ Requirements
+Design, build, and maintain responsive and interactive websites that meet our branding, usability, and performance standards
+Create visually appealing and user-friendly web interfaces using HTML, CSS, JavaScript, and other front-end technologies
+Develop server-side logic and databases, integrating web applications with back-end systems
+Manage and update website content, ensuring it remains current, relevant, and error free
+Ensure website security and optimize site performance, including load times and mobile responsiveness
+Test and ensure websites work consistently across different browsers and devices
+Collaborate with designers, content creators, and other teams to align web development efforts with marketing and business objectives
+Perform rigorous testing, debugging, and quality assurance to identify and resolve issues and ensure optimal website functionality
+Integrate third-party tools, plugins, and APIs as necessary to enhance website features and functionality
+Regularly update websites, including security patches, content changes, and software upgrades
+ Qualification
+Proven experience as a website developer or web developer
+Proficiency in front-end and back-end development languages and tools
+Knowledge of content management systems (e.g. WordPress)
+Strong problem-solving skills and attention to detail
+Ability to work both independently and collaboratively in a team
+Up-to-date with industry trends and best practices in web development</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=62428ff4ba7c325a&amp;bb=X8zdaYO4tB_76iUbATfp3zQavSeL0Di3gARlJiLQFX50t5_ZD1ba_i1fNNswwdjXFPqyweVx-6BUmsW3SELb-uBsGDnWn1Cj5XTclFUJjN11gwrVu71HBBV7EIjQc43d&amp;xkcb=SoD467M35kh-pRAPSr2SbzkdCdPP&amp;fccid=baa8363d53d97c2a&amp;cmp=Joe&amp;ti=Python+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Web Designer Intern</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TechnoBridge Systems Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Hinjewadi, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=cf06d34fd0c05dc8&amp;bb=ySWhijbbgfrkGuhEPs-05THBjyaas5rsqPvNR6JzaMIWJvZFMKmaFTt9d1mM96H1A-anLFMP_s6C3gkB6NP5cN3qATKS14mXq3_gl8ic8-GjANCvvNduOItXyc4bEp12&amp;xkcb=SoCO67M35kh8-1RCL50LbzkdCdPP&amp;fccid=ad440b493a92d3f4&amp;cmp=TECHNOBRIDGE-SYSTEMS&amp;ti=Web+Designer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Full Stack Developer Internship</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DEVCONS SOFTWARE SOLUTIONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Pimple Soudagar, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>From ₹5,000 a monthInternship +1Day shift</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=22605dc2e4e136b1&amp;bb=ySWhijbbgfrkGuhEPs-05YemzorrOdH4MXPG1ROCM-P0ft7wnKvBjNukExegEkq-EkYMbhjk6Oqt9-digDnjrm0QrDjgD3oxQIM6lB-Bo3xE9AHBRVAus-W9caje6hfI&amp;xkcb=SoA667M35kh8-1RCL50KbzkdCdPP&amp;fccid=351ed66c260b9d3f&amp;cmp=DEVCONS-SOFTWARE-SOLUTIONS-PRIVATE-LIMITED&amp;ti=Full+Stack+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Stantec</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Typically responds within 7 days</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=2b01bc1046cebcc4&amp;bb=ySWhijbbgfrkGuhEPs-05TN5rKB7G2uLVaHC_rQXJqwhoNRuU_ITaFWuWjulX_wIzjJ2koHJ_I65JVKblMYqieCR8UW9P9JGlxHQvL2FFV4VOvUG68J5_A%3D%3D&amp;xkcb=SoCn67M35kh8-1RCL50JbzkdCdPP&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FlytBase</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=1965182cca97c250&amp;bb=ySWhijbbgfrkGuhEPs-05RbDf2RTcLhWcj8iKNuHAwHn5L6zN9W7i2PHFa9OcZ670UXjPpVIYXyjy3LSfgqkqfTRaYCTCb5JSg8XF8ZG1AtHy_l5ZLhafYwmrhzfBhDT&amp;xkcb=SoAT67M35kh8-1RCL50IbzkdCdPP&amp;fccid=29326c64593d8892&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>React JS Developer</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Dreams International</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>₹30,000 - ₹50,000 a monthFull-timeDay shift</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=0a9d229f1c695e18&amp;bb=ySWhijbbgfrkGuhEPs-05dLOi33RcuZAsSwKrJNnHgUYQGC9i4j7hHBiTSh1FRxBAgYYF40rU6wmy_PGc42XfSY775S9j_N_XXSud_CO5ensdCQog0zz2HPPt8bpurqN&amp;xkcb=SoCd67M35kh8-1RCL50PbzkdCdPP&amp;fccid=2755b52224ff8ee2&amp;cmp=Dreams-International&amp;ti=Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Web &amp; Mobile Developer – Fresher</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Centelon</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Bavdhan, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=955b559c234ff83a&amp;bb=ySWhijbbgfrkGuhEPs-05bcpM3E7gtVEqeMcVWOiNAVuG-CVNZBRATZUKWMSokwXOyreBYJmJqwabqFudoFBgJQMUsXM0KKfU85i9vM7wKVPsnaVYgxVTceLIDDAOq1n&amp;xkcb=SoAp67M35kh8-1RCL50ObzkdCdPP&amp;fccid=c637d35b0d7be38f&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Python Developer</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TachyonHR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Wanowrie, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=b1b8ed953f9ea01a&amp;bb=ySWhijbbgfrkGuhEPs-05afFpZp_Ede7Xi7cfi2zPOCGBldqOYAsNG0XjU5GQbbgCeAHG5BZ84PbcgMf-ICj2LPL0oCzz0xyGouyWNminf3RigW6wzPPdlL_029DS0uA&amp;xkcb=SoC067M35kh8-1RCL50NbzkdCdPP&amp;fccid=c995beda6ff448e4&amp;cmp=TachyonHR&amp;ti=Python+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Senior Java Backend Developer</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Barclays</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=b775f9a66c2e88db&amp;bb=ySWhijbbgfrkGuhEPs-05XawxEwl3jHZnAD4xOaw0uNQ_IuTlsvdAsXSGLmihBRISQ2uF_pBeA0qHIfqt2-DrUKXRHZkTc0UX-e5j1pgoFu-qMN1PyVUFZUxME6Bvy6V&amp;xkcb=SoAA67M35kh8-1RCL50MbzkdCdPP&amp;fccid=057abf3fd357e717&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Java Backend Developer</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fluid.Live Solutions Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Typically responds within 1 day</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=12b82b11c6428453&amp;bb=ySWhijbbgfrkGuhEPs-05auypeKnkh-wV1fmxxOacBPPh0mim3S85EVP6mYsOYyJtGdon_al_sc4wPrpnqqOt3xv08IgDBF6rIlxG9S4KBRudaFqfr_XLzxzzu6I63NZ&amp;xkcb=SoDp67M35kh8-1RCL50DbzkdCdPP&amp;fccid=bc930420d3fe14dd&amp;cmp=Fluid.Live-Solutions-Pvt-Ltd&amp;ti=Back+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bazaarpeth</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Nanded, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=2b8c646bb2b02ed9&amp;bb=ySWhijbbgfrkGuhEPs-05b1GJtGyQycv2DlCXHA7iJc_RSLLXqZ1t0l6DpFd9iw6zv4AYGc7SfEBCzYITCqB7WIFwfZGHGxlpcg4GEbRSuo4gdWePw_BfaQn2l30Xo3X&amp;xkcb=SoBd67M35kh8-1RCL50CbzkdCdPP&amp;fccid=4ac5b9a2a4861ea6&amp;cmp=bazaarpeth&amp;ti=Web+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SQL Developer</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Egenx Systech</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=82b5f532760aa1a7&amp;bb=ySWhijbbgfrkGuhEPs-05auypeKnkh-w17n3CgUXXVm5edR-V1Ggbsd06r0iujKJiJTs2Llk-hpZ56vFG3jT90uq6wEYrQv7opfT-O1gkv1SWxbaLE3CMJMIP8ovM0ZM&amp;xkcb=SoDA67M35kh8-1RCL50BbzkdCdPP&amp;fccid=b40a443dc452a0a6&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Stantec</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Typically responds within 7 daysFull-time</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=f7a499d78ee43fe5&amp;bb=ySWhijbbgfrkGuhEPs-05fZMwSs52UJBoDIPdxNJu_Q_vP4uAyXV5lcwieZ3BiCg0Grj6lK5RYro43m8eSQPlISZKwkJH4qVKHyQLBe2Of_go3r3-G8z3A%3D%3D&amp;xkcb=SoB067M35kh8-1RCL50AbzkdCdPP&amp;fccid=f1582c464db8553b&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Front End Developer</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>OneGreenDiary Software Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pimpri, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=859d034f83ee25dc&amp;bb=ySWhijbbgfrkGuhEPs-05VnxT-rFtERohGarmMIEh6IvJkFwo15iHPaAZPNifIUY7ViczmdDRUi6EN7TAuDEzQvm8-w8L4VreMihQ1HWHBG8HKPPA-5-m4iKYgEHZifa&amp;xkcb=SoD667M35kh8-1RCL50HbzkdCdPP&amp;fccid=d1cab0df118945b9&amp;cmp=OneGreenDiary-Software-Pvt-Ltd&amp;ti=Front+End+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Full Stack Developer Trainee</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Health hub India</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Deccan Gymkhana, Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=c04d3692a69f5e19&amp;bb=ySWhijbbgfrkGuhEPs-05b1GJtGyQycvD1ZJnF53Qj7CWIKgDakkMOUOCjGPssa4x-Ogn2UahyM2SYTLelUPj4oMTHH6cVXz6eKTrTIkIkq_KUALB_u-ZkDjOnr_PuGx&amp;xkcb=SoBO67M35kh8-1RCL50GbzkdCdPP&amp;fccid=80cf917b1fd4af43&amp;cmp=Health-hub-India&amp;ti=Full+Stack+Developer&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Node.js Backend Developer</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Softbay</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>About Us:We are an Educational Institute, and we're looking for a creative and skilled Web Designer to join our team. If you were passionate about building visually appealing and user-friendly websites, we would love to work with you!
+Job Responsibilities:
+Design and develop visually engaging, responsive web pages using HTML, CSS, and JavaScript with clean, efficient and well-documented code.
+Ensure the website is optimized for search engines and follows web standards.
+Integrate third party scripts for interactive elements and improved user experience.
+Collaborate with back-end developers to ensure smooth implementation of functionalities.
+Test and troubleshoot website functionality and ensure cross-browser compatibility.
+Maintaining and updating existing websites.
+Work with basic PHP scripts and database interactions to enhance dynamic elements.
+Stay updated with the latest design trends, tools, and best practices.
+Key Requirements:
+Proficiency in HTML, CSS, and JavaScript.
+Understanding with responsive design and mobile-first development.
+Basic understanding of PHP and database concepts.
+Strong attention to detail and creative problem-solving skills.
+Ability to work independently and in a team environment.
+Job Type: InternshipContract length: 6 months
+Pay: ₹7,000.00 - ₹10,000.00 per month
+Schedule:
+Day shift
+Ability to commute/relocate:
+Hinjewadi, Pune, Maharashtra: Reliably commute or planning to relocate before starting work (Preferred)
+Work Location: In person</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.indeed.co.in/rc/clk?jk=ee5a7ee60879c004&amp;bb=ySWhijbbgfrkGuhEPs-05eHIvxkG-Ho_a17KU8J97SHaZRiznLZidTQQaDQN3sZZUIbrn12T6CNyaRMJM5odtAs5KFg1IIqla13ccKlXVoJcHXx_qZzQk82KN8VhIOVd&amp;xkcb=SoDT67M35kh8-1RCL50FbzkdCdPP&amp;fccid=98a2a3d31c527500&amp;vjs=3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>